--- a/outputs/ML_Results/dist_commute/Kassel.xlsx
+++ b/outputs/ML_Results/dist_commute/Kassel.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ33641411" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ33878170" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ34130445" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ34401198" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ34713448" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ35023560" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ35315039" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ35601056" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35921871" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ13356575" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13615682" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13865359" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ14131831" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ14387273" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14691676" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14954215" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ15218137" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ15489248" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -989,7 +989,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1233,7 +1233,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1477,7 +1477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1721,7 +1721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1965,7 +1965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2209,7 +2209,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2453,7 +2453,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/outputs/ML_Results/dist_commute/Kassel.xlsx
+++ b/outputs/ML_Results/dist_commute/Kassel.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13356575" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13615682" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13865359" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ14131831" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ14387273" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14691676" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14954215" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ15218137" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ15489248" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ50993138" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ51175966" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ51364523" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ51550087" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ51784883" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ51985209" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ52177872" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52368543" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ52552994" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44170.43781199716</v>
+        <v>42917.38032555665</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008416253040468214</v>
+        <v>0.001100266509406315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2058.81893421831</v>
+        <v>-1036.343153769936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07717171257691922</v>
+        <v>0.5863744054298416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1510.573581434799</v>
+        <v>-2254.570789624536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1702443372289616</v>
+        <v>0.1173677733020186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>133.7240142426456</v>
+        <v>-230.5386554266832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9485461061990852</v>
+        <v>0.6805518403813388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-376.265505779463</v>
+        <v>-66.06597488323854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06511800000572222</v>
+        <v>0.9162514962012712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-370.3873453520803</v>
+        <v>-317.1546168986081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4257477989963743</v>
+        <v>0.6464407368884659</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.47556913385933</v>
+        <v>-264.8053754024059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3035779796998717</v>
+        <v>0.6700531634783693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1044.268229359244</v>
+        <v>-391.8258384433015</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04162563822932626</v>
+        <v>0.0552542286524214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-554.0900325063637</v>
+        <v>-441.0162766783388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5679468074567999</v>
+        <v>0.3445990408712415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2610978859456602</v>
+        <v>-25.05240099010607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4953873594383722</v>
+        <v>0.238569259211287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.002324113133552376</v>
+        <v>-1022.365436764895</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004770535867827061</v>
+        <v>0.04721113951801786</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-126.7244556765159</v>
+        <v>-591.1300974181202</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09074916603309148</v>
+        <v>0.5450623612442389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-150.8230990623097</v>
+        <v>0.2657564068464622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1437833298769434</v>
+        <v>0.48986192362921</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3494.73390366914</v>
+        <v>-0.002355879623686632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6619134202074066</v>
+        <v>0.004369211380158078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1984.945196174102</v>
+        <v>-130.1100682100447</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7067507873670924</v>
+        <v>0.08350906483119774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-148.0313809266345</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1535145896575459</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3547.479951120311</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6579015769250094</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2116.217396190945</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6901552554935746</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-15310.86672420713</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3432832057687754</v>
+      <c r="B20" t="n">
+        <v>-15692.19564378664</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3327336821050153</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28725.39346394034</v>
+        <v>28034.16086712027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02745477762244086</v>
+        <v>0.03072224058654197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1491.215680192088</v>
+        <v>-777.5052919938994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1964972436949796</v>
+        <v>0.6599003427579078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-987.1949524129636</v>
+        <v>-997.4447600548976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3684883512985169</v>
+        <v>0.4634905731596179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>544.6609251709305</v>
+        <v>-16.64810740911827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7919540331873518</v>
+        <v>0.9763956640335303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-461.0694862197122</v>
+        <v>41.66331775925067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02506605738156443</v>
+        <v>0.9464040746221941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-231.4055967130737</v>
+        <v>-295.6877047680177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6180187273905406</v>
+        <v>0.668717698916002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.15229032370561</v>
+        <v>-625.3500573576781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5395680131266729</v>
+        <v>0.3145465675542303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-573.8213966529995</v>
+        <v>-471.7040461434064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.255518796051573</v>
+        <v>0.02212696439364234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.01969597887614</v>
+        <v>-313.6241241481352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.988959388778422</v>
+        <v>0.5000890588596185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2043606850304381</v>
+        <v>-14.8044405760428</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5878956504787932</v>
+        <v>0.4960997053856014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.00127974968172328</v>
+        <v>-512.9943037940202</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1105151568109982</v>
+        <v>0.3133224194173985</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-53.81698452768195</v>
+        <v>47.74786377998154</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4666356432088676</v>
+        <v>0.9599797993501418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-97.39921978391732</v>
+        <v>0.2448994247493877</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3456319929269802</v>
+        <v>0.5182476068651067</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2081.295832152533</v>
+        <v>-0.001249096605059382</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7960422485531857</v>
+        <v>0.1220608627252269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4292.526909771005</v>
+        <v>-49.09252476974746</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4118774148578473</v>
+        <v>0.5089682357966823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-104.2769950834644</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.315522381877953</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2769.036565294683</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7321294453562943</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5048.084915126261</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3381611323381204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-143.2364784908023</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9928130757829783</v>
+      <c r="B20" t="n">
+        <v>-23.23168942188568</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.998838060053608</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37610.9675993885</v>
+        <v>36206.18753036394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006071112050421527</v>
+        <v>0.007914025602784345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2120.508931712232</v>
+        <v>-554.1027513821349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08718499899869568</v>
+        <v>0.7615292929464749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1592.467831316965</v>
+        <v>-613.263031964157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1779623875248918</v>
+        <v>0.6763785820129213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1147.935647881526</v>
+        <v>75.91799221022632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6197761406747984</v>
+        <v>0.8964875127585272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337.9308445686348</v>
+        <v>-143.9243174352631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.111699317203113</v>
+        <v>0.8230156748628269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.5402838487772</v>
+        <v>-147.1755453356038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6980961415660861</v>
+        <v>0.8362939492267838</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.39665062279196</v>
+        <v>-566.2830176753594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4505164552256978</v>
+        <v>0.3810968092981049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-967.4192549426684</v>
+        <v>-338.1940111349891</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06651154718276532</v>
+        <v>0.112674512365154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-782.2231785834872</v>
+        <v>107.672362078677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4311735539054548</v>
+        <v>0.8231790671407003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2907139521692869</v>
+        <v>-14.74057580254597</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4498279187865531</v>
+        <v>0.5051208914947763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.00214747378017241</v>
+        <v>-867.3017622729704</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01133459911250027</v>
+        <v>0.10115067674528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-102.837904422125</v>
+        <v>-677.292001172431</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1876696290864462</v>
+        <v>0.4981350083728792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-105.1882684543444</v>
+        <v>0.3276227805018136</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3211662876750888</v>
+        <v>0.3970985478756639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2725.886774973438</v>
+        <v>-0.002047369049859044</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7418986775407073</v>
+        <v>0.01601151980000711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4337.835317245644</v>
+        <v>-97.50823195061707</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4101198781430608</v>
+        <v>0.2126980236710896</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-114.1455760904581</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2844234922544477</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3167.944663625629</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7030171264074615</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5022.742582106788</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3436230359834124</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-12819.48191387777</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4374396210581212</v>
+      <c r="B20" t="n">
+        <v>-11564.65842646863</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4843817886405616</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36897.44064821568</v>
+        <v>35117.39568473565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005175668937985232</v>
+        <v>0.007420832143106108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2247.641909852272</v>
+        <v>-621.8856731099704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05963176063540374</v>
+        <v>0.7423798730128341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1670.286188934342</v>
+        <v>-2105.940836901135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422026253161569</v>
+        <v>0.1343967388436519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-392.1930023146148</v>
+        <v>-126.5715013043223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8424891246373292</v>
+        <v>0.8202665128543278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339.8903352125674</v>
+        <v>-313.6161524333001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101349964454657</v>
+        <v>0.6096495726280944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.7238961496767</v>
+        <v>12.2619600764537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4822413906423485</v>
+        <v>0.9860304133951902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-39.54858241271681</v>
+        <v>-318.2109117962026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05803571643943375</v>
+        <v>0.6015813043468098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-737.7220286062028</v>
+        <v>-357.98801973465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1495532313697743</v>
+        <v>0.08566865166373304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1090.396394006307</v>
+        <v>268.756429350738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2606632646181654</v>
+        <v>0.5619007669754557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3185942307187408</v>
+        <v>-42.884297109933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3982332608356663</v>
+        <v>0.04457184279459201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001862909611929049</v>
+        <v>-675.495678875438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02229820588585024</v>
+        <v>0.189637000131452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-150.4283169359019</v>
+        <v>-1081.951968963463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04378111395685137</v>
+        <v>0.2678659545500088</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-72.67676751267093</v>
+        <v>0.3311290921867955</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4940551009240634</v>
+        <v>0.3825359983038202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1907.297955360385</v>
+        <v>-0.001821021651705199</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8154702406827409</v>
+        <v>0.02637975118903976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3462.778402758173</v>
+        <v>-146.9766059066468</v>
       </c>
       <c r="C16" t="n">
-        <v>0.505052056966367</v>
+        <v>0.04997657110075732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-67.96702865776672</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5247194377392141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1767.337947395502</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8296618328499918</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-3906.404954206502</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4559927626291099</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-17100.2914368791</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2839914778224206</v>
+      <c r="B20" t="n">
+        <v>-15981.41325996003</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3180183985429142</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33350.73016108022</v>
+        <v>31485.29631222763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01345070229842155</v>
+        <v>0.01894055687531871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2421.382050048545</v>
+        <v>-480.0607197986384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04287721583091177</v>
+        <v>0.7774479089402185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1862.713610485386</v>
+        <v>-1127.940946278559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1045312077060282</v>
+        <v>0.4007470197864719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.67205297121336</v>
+        <v>-65.67570827430978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9838332340674307</v>
+        <v>0.9070734445706918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-338.9796481676739</v>
+        <v>-621.5284785585191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0957274626486331</v>
+        <v>0.3144336676050941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>446.7928715036617</v>
+        <v>-398.4504384620568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3375138058272756</v>
+        <v>0.5619094288247357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.721553449918208</v>
+        <v>-446.8686377468183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.896006069443271</v>
+        <v>0.4731325415968919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-811.8697213244579</v>
+        <v>-353.1082285755958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1141780357858703</v>
+        <v>0.08398460594878981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-776.2951494827016</v>
+        <v>355.8140539917268</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4237423660690236</v>
+        <v>0.4462370810654753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4025901208938375</v>
+        <v>0.9664994038070702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2924784662134266</v>
+        <v>0.9637517889360581</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001898239067025497</v>
+        <v>-769.0518260377867</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02173746331019486</v>
+        <v>0.1367877558172311</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-112.6956118183492</v>
+        <v>-767.1839123945821</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1361287149397657</v>
+        <v>0.4331262856853829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-83.10003918219772</v>
+        <v>0.4090573411357458</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4553427082291406</v>
+        <v>0.287270889325405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1356.868516836489</v>
+        <v>-0.001852780593213048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8720892287262392</v>
+        <v>0.02573995075920915</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5127.272632121041</v>
+        <v>-110.088638358376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3342301497467401</v>
+        <v>0.1470460970013719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-77.18428956036584</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4909121000592735</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1584.956109620803</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8512499471758503</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5451.100860436031</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3084948479528297</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-12801.83483512058</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.425751298665131</v>
+      <c r="B20" t="n">
+        <v>-11981.00489873445</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4573926174247379</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34400.56545727031</v>
+        <v>33338.78767554111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008574517088192776</v>
+        <v>0.01046592044793185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2033.492530703498</v>
+        <v>-302.6049730480615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07938880088624059</v>
+        <v>0.8562490718635984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1209.292478996301</v>
+        <v>-1397.091056309723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2745837697170815</v>
+        <v>0.2932118512322415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225.4331042905292</v>
+        <v>180.1946333506608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9089425611036446</v>
+        <v>0.7498701464396821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275.9374536719303</v>
+        <v>-229.0089329747622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1786752204744085</v>
+        <v>0.711757919106367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.2277953571357</v>
+        <v>-298.2203226120951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6315091896843241</v>
+        <v>0.671416197929129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.85158569345405</v>
+        <v>-353.2655978264316</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2947330168223959</v>
+        <v>0.5690528865112352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-872.5816730018455</v>
+        <v>-286.4809925302326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08459693431353413</v>
+        <v>0.1640178171701589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-646.2665401877719</v>
+        <v>167.3468976340443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4846309305719089</v>
+        <v>0.7213579781380011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09856773133023033</v>
+        <v>-24.24736158127233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7987132036658047</v>
+        <v>0.254706930794961</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001719828367565595</v>
+        <v>-857.6333719849908</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03205594143652286</v>
+        <v>0.09234316531512636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-89.19684890050019</v>
+        <v>-655.6739792682001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.224413371876193</v>
+        <v>0.4828750697010978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-97.16737879542187</v>
+        <v>0.1057682516251894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3478886007582775</v>
+        <v>0.7857991680614608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>729.4986915920736</v>
+        <v>-0.001742222926652802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9265263241446837</v>
+        <v>0.03095743392550081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5394.962730210492</v>
+        <v>-89.97541167871347</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3166880130382203</v>
+        <v>0.2226922639613086</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-94.05117103297592</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3671057043603873</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>958.1781028886498</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9039881817273381</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5604.652524106135</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.301760588618181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>343.1687657663633</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9828051659954204</v>
+      <c r="B20" t="n">
+        <v>502.6735486894768</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9748900914308682</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33440.25385127154</v>
+        <v>31583.87077206546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01386857181916771</v>
+        <v>0.01932333410543951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2068.612979683896</v>
+        <v>-573.3881976337714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0761869392961671</v>
+        <v>0.7375933997718889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1125.882010913504</v>
+        <v>-1319.153264391747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3077838138391053</v>
+        <v>0.3420727717606817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-103.8919570675919</v>
+        <v>272.3607020428479</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9586314247054032</v>
+        <v>0.6415937627837592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-312.4240343912228</v>
+        <v>-74.22293191276542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.138618796712965</v>
+        <v>0.9075940948893193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.81933042450669</v>
+        <v>-214.297080489913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9071626465100943</v>
+        <v>0.7625694856809203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.10890457963418</v>
+        <v>-434.2591436103848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3539444199512564</v>
+        <v>0.4958302739968437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-628.0766036586092</v>
+        <v>-328.3707426587562</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2296024575480382</v>
+        <v>0.1206248150320475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-313.9201647712657</v>
+        <v>-32.26410534765489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7524731367722809</v>
+        <v>0.9462492731176847</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.334035699024022</v>
+        <v>-21.17348786636105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3795563301609197</v>
+        <v>0.3367395388441242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.00167959900977837</v>
+        <v>-562.1628644296762</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04533989052686427</v>
+        <v>0.2846014473163202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-96.31322712808694</v>
+        <v>-282.7553113457642</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2168343322816129</v>
+        <v>0.7784740700820076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-110.1747206939359</v>
+        <v>0.3580184530535697</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3088121221500285</v>
+        <v>0.3493079972681695</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3413.529961639719</v>
+        <v>-0.001620780625029019</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6862307019859186</v>
+        <v>0.05468168301841373</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4637.331226693639</v>
+        <v>-94.35258500726565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3695898412337656</v>
+        <v>0.2286201696835723</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-107.4650013690638</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3240160619087121</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3519.710552020207</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6783132838095687</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5086.574265493851</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3290603145791194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-986.7215256765357</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9531576790965868</v>
+      <c r="B20" t="n">
+        <v>-30.32200403416755</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.998563550037923</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34659.09445270326</v>
+        <v>34297.92942277397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01060927018255137</v>
+        <v>0.01087832623249684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1599.821543439155</v>
+        <v>-588.799302858888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.174785410837656</v>
+        <v>0.734092870676026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-741.6455099437318</v>
+        <v>-1665.682121930077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5058719966328638</v>
+        <v>0.2473334064528379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4276200119393</v>
+        <v>279.7074267956456</v>
       </c>
       <c r="C5" t="n">
-        <v>0.904089712821522</v>
+        <v>0.6228102093245094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388.830241244686</v>
+        <v>-64.26134972075852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0628663748007128</v>
+        <v>0.9189423107365651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-215.8826072437491</v>
+        <v>-144.4659789011504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6517021480256788</v>
+        <v>0.8375991849688947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.136312523908744</v>
+        <v>-626.3684197951649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7390201706133648</v>
+        <v>0.3252136856456326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-906.0936446993426</v>
+        <v>-384.5872095213876</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07798344081698176</v>
+        <v>0.06672112414436036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-663.943817373374</v>
+        <v>-299.3323210744891</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5038437018590129</v>
+        <v>0.5316537678163327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3170711388177712</v>
+        <v>-8.904790831589773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4278353058848063</v>
+        <v>0.6816792148773834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001933074682408073</v>
+        <v>-850.6639180409115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01979301799690327</v>
+        <v>0.09979828561149769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-103.09917498101</v>
+        <v>-629.0286800611593</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1803457444701211</v>
+        <v>0.5304668696653838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-95.7110179485685</v>
+        <v>0.3403492344101622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.389008160755053</v>
+        <v>0.3964855998712502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1654.150342116088</v>
+        <v>-0.001913194840080912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8482905471031001</v>
+        <v>0.02196236836647992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4085.297824647192</v>
+        <v>-101.0065358715659</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4556616381343033</v>
+        <v>0.190977114224281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-103.5490709120535</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3537760986777512</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2035.972489851726</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8147227428606683</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4722.477601124961</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3909985085041152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-8712.253340939307</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.592874534735918</v>
+      <c r="B20" t="n">
+        <v>-8533.174546992872</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6013681371653999</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39828.13172527503</v>
+        <v>39089.87081477432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002729635893674999</v>
+        <v>0.003137839463808443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1516.323244757142</v>
+        <v>442.795826782806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2031419840408178</v>
+        <v>0.8102507407576129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-683.9791827983797</v>
+        <v>-984.8851320052667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5466972808783572</v>
+        <v>0.4747120671133502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-282.5064347912739</v>
+        <v>457.6253036918075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9029670925940014</v>
+        <v>0.4236914077545172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378.2096178261422</v>
+        <v>111.8835456173952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06878487974459704</v>
+        <v>0.8603581778329092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.5521739881417</v>
+        <v>-54.95769230061859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7588596799402989</v>
+        <v>0.9370403207906108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.27415512710317</v>
+        <v>-536.4652030017345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4769706226919308</v>
+        <v>0.3987543084420112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1073.934873550344</v>
+        <v>-377.6279543245055</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03727171113272335</v>
+        <v>0.06986003620348478</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1261.057530938194</v>
+        <v>83.89870558571351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1940735317340011</v>
+        <v>0.8600159334964161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1878509448867929</v>
+        <v>-16.08856614343748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6220239680523032</v>
+        <v>0.4602265867531768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.002211325803049009</v>
+        <v>-1038.010302170077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007192045003817854</v>
+        <v>0.04552034383583096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-155.0427907340006</v>
+        <v>-1273.53753206139</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04074050282144402</v>
+        <v>0.1943410758380871</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-84.3080574622563</v>
+        <v>0.200079331940524</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4212717910073548</v>
+        <v>0.6014914150467159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2225.24329312863</v>
+        <v>-0.002171302448566961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7874468977571822</v>
+        <v>0.00876631488465664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2737.029836035215</v>
+        <v>-154.0627356646911</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6001986288105334</v>
+        <v>0.04282534977593552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-85.26733097342967</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4185179284703289</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2428.373677123508</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7693128022978585</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-3267.239945671324</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.534169714647835</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-24640.81162393593</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1307447235819458</v>
+      <c r="B20" t="n">
+        <v>-24718.32633887539</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1304119570785365</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Kassel.xlsx
+++ b/outputs/ML_Results/dist_commute/Kassel.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ50993138" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ51175966" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51364523" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ51550087" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ51784883" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ51985209" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52177872" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52368543" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52552994" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ45963870" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ46139603" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46332410" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46520026" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ46706580" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ46896467" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ47088008" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ47275941" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ47472613" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42917.38032555665</v>
+        <v>35096.53511963987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001100266509406315</v>
+        <v>0.0007115009010151431</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1036.343153769936</v>
+        <v>-1057.506506758938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5863744054298416</v>
+        <v>0.5787176827662359</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2254.570789624536</v>
+        <v>-2240.71048924107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1173677733020186</v>
+        <v>0.1196078157933013</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-230.5386554266832</v>
+        <v>-222.1335275018692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6805518403813388</v>
+        <v>0.6915449408220958</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66.06597488323854</v>
+        <v>-68.08296974942976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9162514962012712</v>
+        <v>0.9137016954335719</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-317.1546168986081</v>
+        <v>-290.0508987983005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6464407368884659</v>
+        <v>0.6745805873755053</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-264.8053754024059</v>
+        <v>-256.4693729626576</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6700531634783693</v>
+        <v>0.679816043272681</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-391.8258384433015</v>
+        <v>-386.7497049101487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0552542286524214</v>
+        <v>0.05839072156653058</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-441.0162766783388</v>
+        <v>-389.0290809016035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3445990408712415</v>
+        <v>0.4012815696351623</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.05240099010607</v>
+        <v>-25.06887777091093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238569259211287</v>
+        <v>0.238247706927928</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1022.365436764895</v>
+        <v>-665.1871631062498</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04721113951801786</v>
+        <v>0.06426636790759231</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-591.1300974181202</v>
+        <v>134.4297527121072</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5450623612442389</v>
+        <v>0.8302255836396804</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2657564068464622</v>
+        <v>0.3380132919224819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.48986192362921</v>
+        <v>0.370673711784883</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002355879623686632</v>
+        <v>-0.001863676227627668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004369211380158078</v>
+        <v>0.004215376110469734</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-130.1100682100447</v>
+        <v>-71.16261856913002</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08350906483119774</v>
+        <v>0.1065646920552258</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-148.0313809266345</v>
+        <v>-151.3674850179384</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1535145896575459</v>
+        <v>0.1442333479044255</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3547.479951120311</v>
+        <v>6959.962783021962</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6579015769250094</v>
+        <v>0.3334646595332046</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2116.217396190945</v>
+        <v>-3579.885479993321</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6901552554935746</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-15692.19564378664</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3327336821050153</v>
+        <v>0.4817929223770981</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28034.16086712027</v>
+        <v>28022.77907410672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03072224058654197</v>
+        <v>0.006790250630530476</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-777.5052919938994</v>
+        <v>-777.5945144655288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6599003427579078</v>
+        <v>0.659530226341019</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-997.4447600548976</v>
+        <v>-997.3715814082653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4634905731596179</v>
+        <v>0.4630193938692432</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-16.64810740911827</v>
+        <v>-16.63451819107058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9763956640335303</v>
+        <v>0.9764011996175938</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.66331775925067</v>
+        <v>41.6723830343301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9464040746221941</v>
+        <v>0.9463659343815305</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-295.6877047680177</v>
+        <v>-295.6656309037831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668717698916002</v>
+        <v>0.6685274677655783</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-625.3500573576781</v>
+        <v>-625.3529818960039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3145465675542303</v>
+        <v>0.314326704483067</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-471.7040461434064</v>
+        <v>-471.6915491675257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02212696439364234</v>
+        <v>0.02195624501127641</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-313.6241241481352</v>
+        <v>-313.5794120007793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5000890588596185</v>
+        <v>0.4990228614180628</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14.8044405760428</v>
+        <v>-14.80422668002947</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4960997053856014</v>
+        <v>0.4959046233059686</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-512.9943037940202</v>
+        <v>-512.4717587773401</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3133224194173985</v>
+        <v>0.1552044856539626</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.74786377998154</v>
+        <v>48.79250597020807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9599797993501418</v>
+        <v>0.9377664274572628</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2448994247493877</v>
+        <v>0.2450020303732116</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5182476068651067</v>
+        <v>0.5104905153419987</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001249096605059382</v>
+        <v>-0.001248395510083077</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1220608627252269</v>
+        <v>0.05420427862869213</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-49.09252476974746</v>
+        <v>-49.00526663515979</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5089682357966823</v>
+        <v>0.2650563222924907</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-104.2769950834644</v>
+        <v>-104.2819162930448</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315522381877953</v>
+        <v>0.3150283356501219</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2769.036565294683</v>
+        <v>2774.22734321659</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7321294453562943</v>
+        <v>0.7023221724794979</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5048.084915126261</v>
+        <v>-5050.313295268056</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3381611323381204</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-23.23168942188568</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.998838060053608</v>
+        <v>0.3164375304789143</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36206.18753036394</v>
+        <v>30302.0448387635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007914025602784345</v>
+        <v>0.004604325050270023</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-554.1027513821349</v>
+        <v>-563.2086029332621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7615292929464749</v>
+        <v>0.7576730124852995</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-613.263031964157</v>
+        <v>-646.7391622559071</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6763785820129213</v>
+        <v>0.6595554832019164</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.91799221022632</v>
+        <v>73.4345655346898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8964875127585272</v>
+        <v>0.8998309834187299</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143.9243174352631</v>
+        <v>-143.249223586339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8230156748628269</v>
+        <v>0.8237926287939281</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-147.1755453356038</v>
+        <v>-133.9955587234141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8362939492267838</v>
+        <v>0.850688268637811</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-566.2830176753594</v>
+        <v>-567.3958269809568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3810968092981049</v>
+        <v>0.3800523929147021</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-338.1940111349891</v>
+        <v>-333.1132512183647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112674512365154</v>
+        <v>0.1178777072412205</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.672362078677</v>
+        <v>132.7185631373793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8231790671407003</v>
+        <v>0.7823462598707894</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14.74057580254597</v>
+        <v>-14.71722105841887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5051208914947763</v>
+        <v>0.5056986115415336</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-867.3017622729704</v>
+        <v>-603.2421596385116</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10115067674528</v>
+        <v>0.1032868955412461</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-677.292001172431</v>
+        <v>-145.1763833769181</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4981350083728792</v>
+        <v>0.8228075657203996</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3276227805018136</v>
+        <v>0.3781919949252131</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3970985478756639</v>
+        <v>0.3196258656076436</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002047369049859044</v>
+        <v>-0.001681664668570587</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01601151980000711</v>
+        <v>0.01201314333792294</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-97.50823195061707</v>
+        <v>-52.95368940647397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2126980236710896</v>
+        <v>0.2432906679834724</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-114.1455760904581</v>
+        <v>-115.6791886934141</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2844234922544477</v>
+        <v>0.277795217142583</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3167.944663625629</v>
+        <v>5727.130530444753</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7030171264074615</v>
+        <v>0.4426065271745429</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5022.742582106788</v>
+        <v>-6106.539069224632</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3436230359834124</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-11564.65842646863</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4843817886405616</v>
+        <v>0.2285629215948691</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35117.39568473565</v>
+        <v>27404.88850898137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007420832143106108</v>
+        <v>0.009674821887193074</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-621.8856731099704</v>
+        <v>-685.4791428861656</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7423798730128341</v>
+        <v>0.7169633119027661</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2105.940836901135</v>
+        <v>-2117.770956593085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1343967388436519</v>
+        <v>0.132210171719494</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-126.5715013043223</v>
+        <v>-130.2137452144864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8202665128543278</v>
+        <v>0.8151826957969257</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313.6161524333001</v>
+        <v>-323.6694937182145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6096495726280944</v>
+        <v>0.5981865240407389</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.2619600764537</v>
+        <v>6.245441258172491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9860304133951902</v>
+        <v>0.9928842646845917</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-318.2109117962026</v>
+        <v>-335.5982378025639</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6015813043468098</v>
+        <v>0.5817165694407371</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-357.98801973465</v>
+        <v>-348.2579632931461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08566865166373304</v>
+        <v>0.09415387671994184</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.756429350738</v>
+        <v>304.4601378214962</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5619007669754557</v>
+        <v>0.5098790593051825</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-42.884297109933</v>
+        <v>-42.85760121732763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04457184279459201</v>
+        <v>0.04470389523841262</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-675.495678875438</v>
+        <v>-311.4347340282738</v>
       </c>
       <c r="C12" t="n">
-        <v>0.189637000131452</v>
+        <v>0.3916781378743875</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1081.951968963463</v>
+        <v>-345.9967444026556</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2678659545500088</v>
+        <v>0.5889999613725518</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3311290921867955</v>
+        <v>0.407077569525272</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3825359983038202</v>
+        <v>0.2732181848599533</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001821021651705199</v>
+        <v>-0.001337916758208316</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02637975118903976</v>
+        <v>0.04318602754982986</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-146.9766059066468</v>
+        <v>-86.57100992757005</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04997657110075732</v>
+        <v>0.05041860057420032</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-67.96702865776672</v>
+        <v>-73.12143892887642</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5247194377392141</v>
+        <v>0.4932700758549654</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1767.337947395502</v>
+        <v>1858.899198853801</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8296618328499918</v>
+        <v>0.8008440586518731</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3906.404954206502</v>
+        <v>-5463.985727674193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4559927626291099</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-15981.41325996003</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3180183985429142</v>
+        <v>0.2748143456554561</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31485.29631222763</v>
+        <v>25771.99054655453</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01894055687531871</v>
+        <v>0.01899903796452334</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-480.0607197986384</v>
+        <v>-493.5292668497761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7774479089402185</v>
+        <v>0.7713187450511183</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1127.940946278559</v>
+        <v>-1125.592146231393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4007470197864719</v>
+        <v>0.4016333211336045</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-65.67570827430978</v>
+        <v>-71.53573022671259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9070734445706918</v>
+        <v>0.89879483435013</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-621.5284785585191</v>
+        <v>-627.3452551817372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3144336676050941</v>
+        <v>0.3097930984082061</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-398.4504384620568</v>
+        <v>-394.1242627471043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5619094288247357</v>
+        <v>0.5660720716786363</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-446.8686377468183</v>
+        <v>-451.0786461519456</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4731325415968919</v>
+        <v>0.4688676860195077</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-353.1082285755958</v>
+        <v>-348.9457456074168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08398460594878981</v>
+        <v>0.08751418921289633</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>355.8140539917268</v>
+        <v>386.9822576996083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4462370810654753</v>
+        <v>0.4054481977261647</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9664994038070702</v>
+        <v>0.8973095763892474</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9637517889360581</v>
+        <v>0.9663381150542842</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-769.0518260377867</v>
+        <v>-500.1353592646112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1367877558172311</v>
+        <v>0.1751235004008944</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-767.1839123945821</v>
+        <v>-226.7299051930513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4331262856853829</v>
+        <v>0.7291441020715904</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4090573411357458</v>
+        <v>0.4625256894035295</v>
       </c>
       <c r="C14" t="n">
-        <v>0.287270889325405</v>
+        <v>0.2205690812890291</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001852780593213048</v>
+        <v>-0.001505099880533224</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02573995075920915</v>
+        <v>0.02825038399100859</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-110.088638358376</v>
+        <v>-64.61814019737201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1470460970013719</v>
+        <v>0.150184674593667</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-77.18428956036584</v>
+        <v>-80.88053273490253</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4909121000592735</v>
+        <v>0.4698668973514177</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1584.956109620803</v>
+        <v>4366.728522007252</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8512499471758503</v>
+        <v>0.5644098806357878</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5451.100860436031</v>
+        <v>-6618.863359421473</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3084948479528297</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-11981.00489873445</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4573926174247379</v>
+        <v>0.195792386693185</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33338.78767554111</v>
+        <v>33585.26488939268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01046592044793185</v>
+        <v>0.001242209046904175</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-302.6049730480615</v>
+        <v>-301.312665512747</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8562490718635984</v>
+        <v>0.8567506330564729</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1397.091056309723</v>
+        <v>-1397.715431029686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2932118512322415</v>
+        <v>0.2927282248145988</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.1946333506608</v>
+        <v>180.1259269018575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7498701464396821</v>
+        <v>0.7498531940428785</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-229.0089329747622</v>
+        <v>-229.3906390942697</v>
       </c>
       <c r="C6" t="n">
-        <v>0.711757919106367</v>
+        <v>0.7111237521375182</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-298.2203226120951</v>
+        <v>-298.6005264269288</v>
       </c>
       <c r="C7" t="n">
-        <v>0.671416197929129</v>
+        <v>0.6708386353167253</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-353.2655978264316</v>
+        <v>-353.3182328120886</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5690528865112352</v>
+        <v>0.5688223446922579</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-286.4809925302326</v>
+        <v>-286.6147458566622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1640178171701589</v>
+        <v>0.1635443901413251</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.3468976340443</v>
+        <v>166.2795629908701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7213579781380011</v>
+        <v>0.7222474626525288</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.24736158127233</v>
+        <v>-24.25210814479867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.254706930794961</v>
+        <v>0.2543911763924513</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-857.6333719849908</v>
+        <v>-868.7782026937282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09234316531512636</v>
+        <v>0.01769087199456799</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-655.6739792682001</v>
+        <v>-677.7058872554978</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4828750697010978</v>
+        <v>0.2734092187618986</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1057682516251894</v>
+        <v>0.1037133901476517</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7857991680614608</v>
+        <v>0.7868215668921832</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001742222926652802</v>
+        <v>-0.001757136099486314</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03095743392550081</v>
+        <v>0.007178316693339095</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-89.97541167871347</v>
+        <v>-91.83382387310155</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2226922639613086</v>
+        <v>0.03789543041343571</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-94.05117103297592</v>
+        <v>-93.9923892352235</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3671057043603873</v>
+        <v>0.3671155636691827</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>958.1781028886498</v>
+        <v>848.7965854897739</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9039881817273381</v>
+        <v>0.9053685695959783</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5604.652524106135</v>
+        <v>-5557.841335317871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.301760588618181</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>502.6735486894768</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9748900914308682</v>
+        <v>0.2867519280428845</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31583.87077206546</v>
+        <v>31569.2184524905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01932333410543951</v>
+        <v>0.003371329107795772</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-573.3881976337714</v>
+        <v>-573.474385751357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7375933997718889</v>
+        <v>0.7373440569615126</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1319.153264391747</v>
+        <v>-1319.133839204175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3420727717606817</v>
+        <v>0.3418507567569533</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>272.3607020428479</v>
+        <v>272.3483273941837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6415937627837592</v>
+        <v>0.6414377633121661</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74.22293191276542</v>
+        <v>-74.24751692659366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9075940948893193</v>
+        <v>0.9075017166710475</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-214.297080489913</v>
+        <v>-214.2864107322341</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7625694856809203</v>
+        <v>0.7624705412251004</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-434.2591436103848</v>
+        <v>-434.2705569485695</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4958302739968437</v>
+        <v>0.4956060954206953</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-328.3707426587562</v>
+        <v>-328.3739166141993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1206248150320475</v>
+        <v>0.1204433772028569</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.26410534765489</v>
+        <v>-32.21884497361179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9462492731176847</v>
+        <v>0.9462266013099903</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.17348786636105</v>
+        <v>-21.17396044435023</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3367395388441242</v>
+        <v>0.3364797395419552</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-562.1628644296762</v>
+        <v>-561.4881429230697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2846014473163202</v>
+        <v>0.1270732250967209</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-282.7553113457642</v>
+        <v>-281.3982861157908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7784740700820076</v>
+        <v>0.6720185403840584</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3580184530535697</v>
+        <v>0.3581523198314748</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3493079972681695</v>
+        <v>0.3396217192575326</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001620780625029019</v>
+        <v>-0.001619870230089955</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05468168301841373</v>
+        <v>0.01638204718957684</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-94.35258500726565</v>
+        <v>-94.23845095030738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2286201696835723</v>
+        <v>0.04073345171678912</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-107.4650013690638</v>
+        <v>-107.4715004136865</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3240160619087121</v>
+        <v>0.3235060913605068</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3519.710552020207</v>
+        <v>3526.41540349242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6783132838095687</v>
+        <v>0.6435945639669755</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5086.574265493851</v>
+        <v>-5089.529958044935</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3290603145791194</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-30.32200403416755</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.998563550037923</v>
+        <v>0.3032814066110716</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34297.92942277397</v>
+        <v>30205.8628498719</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01087832623249684</v>
+        <v>0.005796410229097437</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-588.799302858888</v>
+        <v>-609.0758003460246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.734092870676026</v>
+        <v>0.725149507264411</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1665.682121930077</v>
+        <v>-1642.258078915847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2473334064528379</v>
+        <v>0.2536561866126862</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279.7074267956456</v>
+        <v>279.8945279543766</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6228102093245094</v>
+        <v>0.622465149260091</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64.26134972075852</v>
+        <v>-61.17252348963621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9189423107365651</v>
+        <v>0.9227977503537421</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-144.4659789011504</v>
+        <v>-132.6842200950623</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8375991849688947</v>
+        <v>0.8505574509280593</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-626.3684197951649</v>
+        <v>-626.597178834478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3252136856456326</v>
+        <v>0.3248806417036283</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-384.5872095213876</v>
+        <v>-381.1287616022561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06672112414436036</v>
+        <v>0.06897595983050332</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-299.3323210744891</v>
+        <v>-273.4272609042611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5316537678163327</v>
+        <v>0.565536224715238</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.904790831589773</v>
+        <v>-8.94697304893395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6816792148773834</v>
+        <v>0.680154986225424</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-850.6639180409115</v>
+        <v>-658.2456498813126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09979828561149769</v>
+        <v>0.06927339926654144</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-629.0286800611593</v>
+        <v>-236.0608129782707</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5304668696653838</v>
+        <v>0.7217488619601758</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3403492344101622</v>
+        <v>0.3808006868953235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3964855998712502</v>
+        <v>0.3334840297836409</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001913194840080912</v>
+        <v>-0.001660097783931348</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02196236836647992</v>
+        <v>0.01459043821439768</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-101.0065358715659</v>
+        <v>-68.4336404498937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.190977114224281</v>
+        <v>0.1330543030240351</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-103.5490709120535</v>
+        <v>-106.6070050397032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3537760986777512</v>
+        <v>0.3389278588303684</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2035.972489851726</v>
+        <v>4039.306915112792</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8147227428606683</v>
+        <v>0.6042836742388571</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4722.477601124961</v>
+        <v>-5558.099760991448</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3909985085041152</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-8533.174546992872</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6013681371653999</v>
+        <v>0.2912567699563735</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39089.87081477432</v>
+        <v>27011.9556268234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003137839463808443</v>
+        <v>0.01041668123727012</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>442.795826782806</v>
+        <v>387.4620203913402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8102507407576129</v>
+        <v>0.8336521582249063</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-984.8851320052667</v>
+        <v>-917.265632550397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4747120671133502</v>
+        <v>0.505581131706811</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>457.6253036918075</v>
+        <v>480.2861984394522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4236914077545172</v>
+        <v>0.4012196408801731</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.8835456173952</v>
+        <v>103.9572899589498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8603581778329092</v>
+        <v>0.870228988306621</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-54.95769230061859</v>
+        <v>-39.81137167480847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9370403207906108</v>
+        <v>0.9543908074474139</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-536.4652030017345</v>
+        <v>-543.3442688037887</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3987543084420112</v>
+        <v>0.3929953013057063</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-377.6279543245055</v>
+        <v>-374.4894661607139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06986003620348478</v>
+        <v>0.07236185738110187</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.89870558571351</v>
+        <v>150.7089339731949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8600159334964161</v>
+        <v>0.7505046807448044</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.08856614343748</v>
+        <v>-16.60471522454201</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4602265867531768</v>
+        <v>0.4461695412764672</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1038.010302170077</v>
+        <v>-481.1555647039883</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04552034383583096</v>
+        <v>0.1883422883830903</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1273.53753206139</v>
+        <v>-150.8500460233643</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1943410758380871</v>
+        <v>0.814247919501123</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.200079331940524</v>
+        <v>0.3113675941671251</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6014914150467159</v>
+        <v>0.4078963959047525</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002171302448566961</v>
+        <v>-0.001416790875529114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00876631488465664</v>
+        <v>0.03208830659565647</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-154.0627356646911</v>
+        <v>-61.20117482911095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04282534977593552</v>
+        <v>0.1726034417700373</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-85.26733097342967</v>
+        <v>-90.84760545616058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4185179284703289</v>
+        <v>0.3887112007211841</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2428.373677123508</v>
+        <v>3060.915643432995</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7693128022978585</v>
+        <v>0.6810820033782083</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3267.239945671324</v>
+        <v>-5647.964770087514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.534169714647835</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-24718.32633887539</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1304119570785365</v>
+        <v>0.2604112386862124</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Kassel.xlsx
+++ b/outputs/ML_Results/dist_commute/Kassel.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ45963870" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46139603" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46332410" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46520026" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ46706580" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ46896467" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ47088008" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ47275941" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ47472613" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ07952618" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ08160929" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ08376972" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ08613340" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ08835665" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ09070880" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ09291255" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ09522455" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09733094" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35096.53511963987</v>
+        <v>35956.38806264351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007115009010151431</v>
+        <v>0.002557098318222973</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1057.506506758938</v>
+        <v>-1158.376211049231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5787176827662359</v>
+        <v>0.5800719569958523</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2240.71048924107</v>
+        <v>-3895.16090992886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1196078157933013</v>
+        <v>0.01571032270405493</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-222.1335275018692</v>
+        <v>318.6954584731862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6915449408220958</v>
+        <v>0.6078409407158329</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68.08296974942976</v>
+        <v>-93.95209315834103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9137016954335719</v>
+        <v>0.890551057733651</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-290.0508987983005</v>
+        <v>-7.842968399744223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6745805873755053</v>
+        <v>0.9919429026726732</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-256.4693729626576</v>
+        <v>-510.2851039505528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.679816043272681</v>
+        <v>0.4648188668548333</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-386.7497049101487</v>
+        <v>-388.7349177047185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05839072156653058</v>
+        <v>0.09408904115612822</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-389.0290809016035</v>
+        <v>-436.6702042505565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4012815696351623</v>
+        <v>0.4016170082354941</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-25.06887777091093</v>
+        <v>-28.72478055084976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238247706927928</v>
+        <v>0.2308058399676132</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-665.1871631062498</v>
+        <v>-548.8398812591987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06426636790759231</v>
+        <v>0.1848761639193847</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.4297527121072</v>
+        <v>-82.06279141212417</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8302255836396804</v>
+        <v>0.9115466586944749</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3380132919224819</v>
+        <v>0.4050691917509608</v>
       </c>
       <c r="C14" t="n">
-        <v>0.370673711784883</v>
+        <v>0.3213057395361826</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001863676227627668</v>
+        <v>-0.001249935950570491</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004215376110469734</v>
+        <v>0.09292125238493114</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-71.16261856913002</v>
+        <v>-14.08536641919805</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1065646920552258</v>
+        <v>0.7827848949495202</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-151.3674850179384</v>
+        <v>-163.6198768290929</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1442333479044255</v>
+        <v>0.1821984205887325</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6959.962783021962</v>
+        <v>2378.046690397984</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3334646595332046</v>
+        <v>0.7806739936520201</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3579.885479993321</v>
+        <v>-8727.892702512798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4817929223770981</v>
+        <v>0.1178746137349207</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28022.77907410672</v>
+        <v>42348.21509672739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006790250630530476</v>
+        <v>0.0004189815595255446</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-777.5945144655288</v>
+        <v>-1634.384232506073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.659530226341019</v>
+        <v>0.4323164251908281</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-997.3715814082653</v>
+        <v>-1883.688326377048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4630193938692432</v>
+        <v>0.2027797751695093</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-16.63451819107058</v>
+        <v>481.053477277623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9764011996175938</v>
+        <v>0.4461456885290622</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.6723830343301</v>
+        <v>-469.0570307796949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9463659343815305</v>
+        <v>0.5050498430552121</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-295.6656309037831</v>
+        <v>-30.80394219920038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6685274677655783</v>
+        <v>0.9681764783193579</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-625.3529818960039</v>
+        <v>-642.8453622983673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.314326704483067</v>
+        <v>0.3651744559114226</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-471.6915491675257</v>
+        <v>-572.7288940613869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02195624501127641</v>
+        <v>0.01371950829849584</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-313.5794120007793</v>
+        <v>-671.8394160456468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4990228614180628</v>
+        <v>0.2027872133622639</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14.80422668002947</v>
+        <v>-30.55450854277705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4959046233059686</v>
+        <v>0.2082448481712252</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-512.4717587773401</v>
+        <v>-829.8466180246138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1552044856539626</v>
+        <v>0.04632333670180487</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.79250597020807</v>
+        <v>-1088.137517309179</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9377664274572628</v>
+        <v>0.1442910718291174</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2450020303732116</v>
+        <v>0.5678968499884111</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5104905153419987</v>
+        <v>0.1772440947851473</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001248395510083077</v>
+        <v>-0.00241272216801428</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05420427862869213</v>
+        <v>0.001387691875506197</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-49.00526663515979</v>
+        <v>-100.2293673103042</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2650563222924907</v>
+        <v>0.05110802071706382</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-104.2819162930448</v>
+        <v>-125.7662161874857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3150283356501219</v>
+        <v>0.3094290361152893</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2774.22734321659</v>
+        <v>4318.054197782312</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7023221724794979</v>
+        <v>0.6153374117148952</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5050.313295268056</v>
+        <v>-9526.05308386196</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3164375304789143</v>
+        <v>0.09636449747467243</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30302.0448387635</v>
+        <v>41045.44610077789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004604325050270023</v>
+        <v>0.0005647418769992436</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-563.2086029332621</v>
+        <v>-1798.889928864301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7576730124852995</v>
+        <v>0.3593868260642804</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-646.7391622559071</v>
+        <v>-1643.19330794612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6595554832019164</v>
+        <v>0.2831315368391902</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.4345655346898</v>
+        <v>94.76743676706825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8998309834187299</v>
+        <v>0.8833991854329981</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143.249223586339</v>
+        <v>283.9897022189871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8237926287939281</v>
+        <v>0.6882439702894039</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-133.9955587234141</v>
+        <v>201.8805176466227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.850688268637811</v>
+        <v>0.7938546641678327</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-567.3958269809568</v>
+        <v>-545.0588937263458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3800523929147021</v>
+        <v>0.4375439658108542</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-333.1132512183647</v>
+        <v>-521.5931308384129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1178777072412205</v>
+        <v>0.0251108654412234</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.7185631373793</v>
+        <v>-145.9156682360821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7823462598707894</v>
+        <v>0.7819272351229662</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-14.71722105841887</v>
+        <v>-32.77421108705916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5056986115415336</v>
+        <v>0.1704136215363789</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-603.2421596385116</v>
+        <v>-994.9245965318753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1032868955412461</v>
+        <v>0.0162272701437836</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-145.1763833769181</v>
+        <v>-1185.836883583163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8228075657203996</v>
+        <v>0.1090432516788499</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3781919949252131</v>
+        <v>0.416947532823517</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3196258656076436</v>
+        <v>0.3395605301703509</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001681664668570587</v>
+        <v>-0.002661322541796743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01201314333792294</v>
+        <v>0.0003006560916879615</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-52.95368940647397</v>
+        <v>-106.3691259018732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2432906679834724</v>
+        <v>0.03930576461920506</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-115.6791886934141</v>
+        <v>-103.1459798066684</v>
       </c>
       <c r="C17" t="n">
-        <v>0.277795217142583</v>
+        <v>0.398902734747375</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5727.130530444753</v>
+        <v>4550.686692080557</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4426065271745429</v>
+        <v>0.592965594576739</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6106.539069224632</v>
+        <v>-7917.792302091141</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2285629215948691</v>
+        <v>0.187884644244649</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27404.88850898137</v>
+        <v>32402.85928006861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009674821887193074</v>
+        <v>0.006859979482779651</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-685.4791428861656</v>
+        <v>-1414.343077550277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7169633119027661</v>
+        <v>0.4959408099612397</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2117.770956593085</v>
+        <v>-1346.880339786805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.132210171719494</v>
+        <v>0.3777441793786027</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-130.2137452144864</v>
+        <v>311.293349797714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8151826957969257</v>
+        <v>0.6332223377516426</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-323.6694937182145</v>
+        <v>-169.4764049566377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5981865240407389</v>
+        <v>0.813094223042252</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.245441258172491</v>
+        <v>-400.6513966838122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9928842646845917</v>
+        <v>0.614579365036949</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-335.5982378025639</v>
+        <v>-967.9936839086536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5817165694407371</v>
+        <v>0.1769349220920642</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-348.2579632931461</v>
+        <v>-292.6327945626157</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09415387671994184</v>
+        <v>0.2293420294086614</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304.4601378214962</v>
+        <v>-111.4723180269601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5098790593051825</v>
+        <v>0.8353992747925119</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-42.85760121732763</v>
+        <v>-3.652602988101657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04470389523841262</v>
+        <v>0.8825545055484486</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-311.4347340282738</v>
+        <v>-628.6532341624784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3916781378743875</v>
+        <v>0.1346340742535518</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-345.9967444026556</v>
+        <v>-496.5970387592382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5889999613725518</v>
+        <v>0.5057400331010002</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.407077569525272</v>
+        <v>0.284992743000062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2732181848599533</v>
+        <v>0.5054285119137036</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001337916758208316</v>
+        <v>-0.001905341597028162</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04318602754982986</v>
+        <v>0.0103200990985938</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-86.57100992757005</v>
+        <v>-55.73497943981236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05041860057420032</v>
+        <v>0.2825941018401522</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-73.12143892887642</v>
+        <v>-108.9420911095722</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4932700758549654</v>
+        <v>0.3738634242264315</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1858.899198853801</v>
+        <v>4978.735370361435</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8008440586518731</v>
+        <v>0.5627844629003047</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5463.985727674193</v>
+        <v>-5133.473811011276</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2748143456554561</v>
+        <v>0.3800578827580753</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25771.99054655453</v>
+        <v>28375.93818858629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01899903796452334</v>
+        <v>0.02119761071053773</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-493.5292668497761</v>
+        <v>-1610.559229777658</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7713187450511183</v>
+        <v>0.4110969143503942</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1125.592146231393</v>
+        <v>-1318.220761174334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4016333211336045</v>
+        <v>0.3798626617689097</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-71.53573022671259</v>
+        <v>389.1775040529111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.89879483435013</v>
+        <v>0.5388236707223002</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627.3452551817372</v>
+        <v>70.32685293476197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3097930984082061</v>
+        <v>0.9202126951179163</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-394.1242627471043</v>
+        <v>362.0056845574484</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5660720716786363</v>
+        <v>0.6463163304672874</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-451.0786461519456</v>
+        <v>-856.9346757743758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4688676860195077</v>
+        <v>0.2221780836312338</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-348.9457456074168</v>
+        <v>-526.2904384644924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08751418921289633</v>
+        <v>0.02498389608591339</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.9822576996083</v>
+        <v>-33.53404758880941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4054481977261647</v>
+        <v>0.9490099995577872</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8973095763892474</v>
+        <v>-30.35837151674136</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9663381150542842</v>
+        <v>0.2042590265164531</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-500.1353592646112</v>
+        <v>-546.5002023047991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1751235004008944</v>
+        <v>0.1848367238673987</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-226.7299051930513</v>
+        <v>-332.787216275594</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7291441020715904</v>
+        <v>0.6661255087426546</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4625256894035295</v>
+        <v>0.1829349683609985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2205690812890291</v>
+        <v>0.6710990712124624</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001505099880533224</v>
+        <v>-0.00164502869590767</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02825038399100859</v>
+        <v>0.02911634701155477</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-64.61814019737201</v>
+        <v>-26.88611612079023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.150184674593667</v>
+        <v>0.6060039627388375</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-80.88053273490253</v>
+        <v>-84.29355557391006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4698668973514177</v>
+        <v>0.5109351517140031</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4366.728522007252</v>
+        <v>5524.764728581853</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5644098806357878</v>
+        <v>0.5366353569151511</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6618.863359421473</v>
+        <v>-4026.455696682633</v>
       </c>
       <c r="C19" t="n">
-        <v>0.195792386693185</v>
+        <v>0.4913369523945839</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33585.26488939268</v>
+        <v>43196.36327020752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001242209046904175</v>
+        <v>0.0003792749623615916</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-301.312665512747</v>
+        <v>-2642.502082116322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8567506330564729</v>
+        <v>0.2290427797188871</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1397.715431029686</v>
+        <v>-2135.334278811047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2927282248145988</v>
+        <v>0.1758598941873148</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.1259269018575</v>
+        <v>441.951905914971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7498531940428785</v>
+        <v>0.4874402948965978</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-229.3906390942697</v>
+        <v>-90.20684814708466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7111237521375182</v>
+        <v>0.8982064277750459</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-298.6005264269288</v>
+        <v>-222.4526104205261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6708386353167253</v>
+        <v>0.7775448301780106</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-353.3182328120886</v>
+        <v>-613.8206503433732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5688223446922579</v>
+        <v>0.3903741550265761</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-286.6147458566622</v>
+        <v>-541.2753814635729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1635443901413251</v>
+        <v>0.020476611836017</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.2795629908701</v>
+        <v>-389.8741041467595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7222474626525288</v>
+        <v>0.463692274999818</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-24.25210814479867</v>
+        <v>-36.08043960973011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2543911763924513</v>
+        <v>0.1355115815607013</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-868.7782026937282</v>
+        <v>-675.5087164212991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01769087199456799</v>
+        <v>0.1028393660017744</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-677.7058872554978</v>
+        <v>-311.7947905982028</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2734092187618986</v>
+        <v>0.6812525712906252</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1037133901476517</v>
+        <v>0.2044246996273111</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7868215668921832</v>
+        <v>0.6298516748179852</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001757136099486314</v>
+        <v>-0.002161340369822562</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007178316693339095</v>
+        <v>0.004083568729372206</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-91.83382387310155</v>
+        <v>-99.24330753680644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03789543041343571</v>
+        <v>0.05651961785425966</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-93.9923892352235</v>
+        <v>-167.8950689157721</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3671155636691827</v>
+        <v>0.1790134001382198</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>848.7965854897739</v>
+        <v>4805.833552800952</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9053685695959783</v>
+        <v>0.582756055877561</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5557.841335317871</v>
+        <v>-4157.788515747867</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2867519280428845</v>
+        <v>0.463494252723643</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31569.2184524905</v>
+        <v>38363.23588279225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003371329107795772</v>
+        <v>0.002893614296886767</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-573.474385751357</v>
+        <v>-1228.402714674723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7373440569615126</v>
+        <v>0.5756487643903696</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1319.133839204175</v>
+        <v>-577.2096858247216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3418507567569533</v>
+        <v>0.7263533504941491</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>272.3483273941837</v>
+        <v>773.0198011837637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6414377633121661</v>
+        <v>0.2364635055362717</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74.24751692659366</v>
+        <v>-67.35725300203458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9075017166710475</v>
+        <v>0.925361414325237</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-214.2864107322341</v>
+        <v>-40.4831398588683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7624705412251004</v>
+        <v>0.9598779731576448</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-434.2705569485695</v>
+        <v>-1404.228517693706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4956060954206953</v>
+        <v>0.05539635782784311</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-328.3739166141993</v>
+        <v>-680.2629209426259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1204433772028569</v>
+        <v>0.004725508481850105</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-32.21884497361179</v>
+        <v>-281.5987363171243</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9462266013099903</v>
+        <v>0.6028543278810735</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.17396044435023</v>
+        <v>-0.02522898414803176</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3364797395419552</v>
+        <v>0.9991991982911756</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-561.4881429230697</v>
+        <v>-779.0993848839747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1270732250967209</v>
+        <v>0.06956232367815358</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-281.3982861157908</v>
+        <v>-494.7496821437975</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6720185403840584</v>
+        <v>0.538248420150979</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3581523198314748</v>
+        <v>0.2701708147417117</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3396217192575326</v>
+        <v>0.5410522343181432</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001619870230089955</v>
+        <v>-0.002055975670344107</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01638204718957684</v>
+        <v>0.009480412062238123</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-94.23845095030738</v>
+        <v>-84.79714015997368</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04073345171678912</v>
+        <v>0.1156210475069608</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-107.4715004136865</v>
+        <v>-141.3162966325544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3235060913605068</v>
+        <v>0.2915318089557142</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3526.41540349242</v>
+        <v>4733.963995099335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6435945639669755</v>
+        <v>0.6104060101021398</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5089.529958044935</v>
+        <v>-3547.598768824098</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3032814066110716</v>
+        <v>0.5490859771447469</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30205.8628498719</v>
+        <v>36703.97066769873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005796410229097437</v>
+        <v>0.002702411042421356</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-609.0758003460246</v>
+        <v>-2125.162410205084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.725149507264411</v>
+        <v>0.3297334413098265</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1642.258078915847</v>
+        <v>-632.446006560552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2536561866126862</v>
+        <v>0.7005666177145955</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279.8945279543766</v>
+        <v>513.8131579853126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.622465149260091</v>
+        <v>0.4292451178887465</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61.17252348963621</v>
+        <v>102.6208408944999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9227977503537421</v>
+        <v>0.8857791619710259</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-132.6842200950623</v>
+        <v>222.4945984221996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8505574509280593</v>
+        <v>0.781081456349362</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-626.597178834478</v>
+        <v>-937.4433114386043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3248806417036283</v>
+        <v>0.1921803813370488</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-381.1287616022561</v>
+        <v>-428.148037588903</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06897595983050332</v>
+        <v>0.07515819109290126</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-273.4272609042611</v>
+        <v>-820.2141659163624</v>
       </c>
       <c r="C10" t="n">
-        <v>0.565536224715238</v>
+        <v>0.1287700283669983</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.94697304893395</v>
+        <v>-4.59234124763266</v>
       </c>
       <c r="C11" t="n">
-        <v>0.680154986225424</v>
+        <v>0.8523610531833929</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-658.2456498813126</v>
+        <v>-894.4750623947259</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06927339926654144</v>
+        <v>0.03392113087594784</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-236.0608129782707</v>
+        <v>-865.783939234725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7217488619601758</v>
+        <v>0.2550697795599112</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3808006868953235</v>
+        <v>-0.04662015091763638</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3334840297836409</v>
+        <v>0.9147778621009977</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001660097783931348</v>
+        <v>-0.002168924124239217</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01459043821439768</v>
+        <v>0.003893352276142103</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-68.4336404498937</v>
+        <v>-102.3793628319345</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1330543030240351</v>
+        <v>0.05119099150893307</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-106.6070050397032</v>
+        <v>-97.08806876105471</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3389278588303684</v>
+        <v>0.4386070658688307</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4039.306915112792</v>
+        <v>578.4482675920253</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6042836742388571</v>
+        <v>0.9470945459806528</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5558.099760991448</v>
+        <v>-2230.898171359006</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2912567699563735</v>
+        <v>0.7084903546250436</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27011.9556268234</v>
+        <v>39727.43872188345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01041668123727012</v>
+        <v>0.00107166548947075</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>387.4620203913402</v>
+        <v>-1512.22300620165</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8336521582249063</v>
+        <v>0.4725942311267889</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-917.265632550397</v>
+        <v>-1146.582221960672</v>
       </c>
       <c r="C4" t="n">
-        <v>0.505581131706811</v>
+        <v>0.4672259325749683</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>480.2861984394522</v>
+        <v>962.6298529899258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4012196408801731</v>
+        <v>0.1318741608539297</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103.9572899589498</v>
+        <v>2.228273908126312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.870228988306621</v>
+        <v>0.997468404906835</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.81137167480847</v>
+        <v>43.93611887073223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9543908074474139</v>
+        <v>0.9551981864425692</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-543.3442688037887</v>
+        <v>-394.1743437239601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3929953013057063</v>
+        <v>0.5816198736363948</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-374.4894661607139</v>
+        <v>-458.2714680453797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07236185738110187</v>
+        <v>0.05599701809554618</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.7089339731949</v>
+        <v>-256.4514117417793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7505046807448044</v>
+        <v>0.6301538832529094</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.60471522454201</v>
+        <v>-28.1604317252467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4461695412764672</v>
+        <v>0.2502006533144829</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-481.1555647039883</v>
+        <v>-941.5094868293952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1883422883830903</v>
+        <v>0.02482016586394632</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-150.8500460233643</v>
+        <v>-1134.151772631275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.814247919501123</v>
+        <v>0.1351884962003555</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3113675941671251</v>
+        <v>0.07006340436588608</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4078963959047525</v>
+        <v>0.8717497928794602</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001416790875529114</v>
+        <v>-0.002181672378134019</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03208830659565647</v>
+        <v>0.003654595174226303</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-61.20117482911095</v>
+        <v>-115.5818674136233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1726034417700373</v>
+        <v>0.02699031732348248</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-90.84760545616058</v>
+        <v>-98.28697338764167</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3887112007211841</v>
+        <v>0.4307389423922879</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3060.915643432995</v>
+        <v>-509.7291276954868</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6810820033782083</v>
+        <v>0.9532027561154186</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5647.964770087514</v>
+        <v>-5334.08595550795</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2604112386862124</v>
+        <v>0.3711095362829301</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Kassel.xlsx
+++ b/outputs/ML_Results/dist_commute/Kassel.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ07952618" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ08160929" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ08376972" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ08613340" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ08835665" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ09070880" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ09291255" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ09522455" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ09733094" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ59372882" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ59602462" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ59849697" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ00144466" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ00403422" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ00653633" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ00988358" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ01285934" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ01626889" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Kassel.xlsx
+++ b/outputs/ML_Results/dist_commute/Kassel.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ59372882" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ59602462" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ59849697" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ00144466" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ00403422" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ00653633" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ00988358" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ01285934" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ01626889" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ09946458" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ10163890" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ10431808" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ10704077" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ11036862" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ11363317" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ11693132" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ11994613" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ12252963" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35956.38806264351</v>
+        <v>36196.38548723406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002557098318222973</v>
+        <v>0.00232069410204281</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1158.376211049231</v>
+        <v>-1169.554913479168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5800719569958523</v>
+        <v>0.5762133788806791</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3895.16090992886</v>
+        <v>-3875.819456320361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01571032270405493</v>
+        <v>0.01609502178329286</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>318.6954584731862</v>
+        <v>312.261896981668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6078409407158329</v>
+        <v>0.6147279495873796</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93.95209315834103</v>
+        <v>-82.60559163782753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.890551057733651</v>
+        <v>0.9034910703374563</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.842968399744223</v>
+        <v>-13.02014331108455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9919429026726732</v>
+        <v>0.9866160511526001</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-510.2851039505528</v>
+        <v>-515.8786374879742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4648188668548333</v>
+        <v>0.4595888808397141</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-388.7349177047185</v>
+        <v>-389.3323253464753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09408904115612822</v>
+        <v>0.09345283949964699</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-436.6702042505565</v>
+        <v>-440.2314409426975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4016170082354941</v>
+        <v>0.3974745354758743</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.72478055084976</v>
+        <v>-28.6925840387889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2308058399676132</v>
+        <v>0.2311551379761061</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-548.8398812591987</v>
+        <v>-529.6140417275253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1848761639193847</v>
+        <v>0.1941172550090193</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-82.06279141212417</v>
+        <v>29.61829498700729</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9115466586944749</v>
+        <v>0.9617456053852231</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4050691917509608</v>
+        <v>0.4603837289145062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3213057395361826</v>
+        <v>0.1954951882243796</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001249935950570491</v>
+        <v>-0.001245384883943588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09292125238493114</v>
+        <v>0.09391660137996567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.08536641919805</v>
+        <v>-175.4469111469172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7827848949495202</v>
+        <v>0.1266757303598965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-163.6198768290929</v>
+        <v>3609.759798958724</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1821984205887325</v>
+        <v>0.619831060424154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2378.046690397984</v>
+        <v>-9573.902877056833</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7806739936520201</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-8727.892702512798</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1178746137349207</v>
+        <v>0.03997367169118889</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42348.21509672739</v>
+        <v>44184.62416704743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004189815595255446</v>
+        <v>0.0002265862345288609</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1634.384232506073</v>
+        <v>-1674.35386223967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4323164251908281</v>
+        <v>0.4216324509088752</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1883.688326377048</v>
+        <v>-1776.710176836773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2027797751695093</v>
+        <v>0.2297930238138355</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481.053477277623</v>
+        <v>429.5328438669735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4461456885290622</v>
+        <v>0.4964230260517424</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-469.0570307796949</v>
+        <v>-394.7725764915149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5050498430552121</v>
+        <v>0.5746449213451275</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.80394219920038</v>
+        <v>-89.24795046311073</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9681764783193579</v>
+        <v>0.9080099955413898</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-642.8453622983673</v>
+        <v>-699.3422026201771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3651744559114226</v>
+        <v>0.3246988508979342</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-572.7288940613869</v>
+        <v>-571.4240196305877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01371950829849584</v>
+        <v>0.014039387326435</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-671.8394160456468</v>
+        <v>-654.159959462248</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2027872133622639</v>
+        <v>0.2153517056234526</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.55450854277705</v>
+        <v>-31.61922073926511</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2082448481712252</v>
+        <v>0.1932122803641029</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-829.8466180246138</v>
+        <v>-692.0519954329775</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04632333670180487</v>
+        <v>0.09207447372295065</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1088.137517309179</v>
+        <v>-297.0984983973884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1442910718291174</v>
+        <v>0.6349897376554801</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5678968499884111</v>
+        <v>0.9779150900507574</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1772440947851473</v>
+        <v>0.00745432258158752</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +892,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00241272216801428</v>
+        <v>-0.002372685031425587</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001387691875506197</v>
+        <v>0.001677454691566669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-100.2293673103042</v>
+        <v>-210.8958414251611</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05110802071706382</v>
+        <v>0.06897920584201743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-125.7662161874857</v>
+        <v>13077.95072336806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3094290361152893</v>
+        <v>0.07482935693300075</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4318.054197782312</v>
+        <v>-15697.49765697986</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6153374117148952</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-9526.05308386196</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.09636449747467243</v>
+        <v>0.00104697553176106</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41045.44610077789</v>
+        <v>42946.7197757659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005647418769992436</v>
+        <v>0.0003023933051503</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1798.889928864301</v>
+        <v>-1898.101944787245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3593868260642804</v>
+        <v>0.3339783341375535</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1643.19330794612</v>
+        <v>-1516.009062681957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2831315368391902</v>
+        <v>0.3222621686011493</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.76743676706825</v>
+        <v>28.53991562220538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8833991854329981</v>
+        <v>0.9647712548755398</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283.9897022189871</v>
+        <v>342.7256020075132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6882439702894039</v>
+        <v>0.628387695555173</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8805176466227</v>
+        <v>111.0741903416056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7938546641678327</v>
+        <v>0.8856391488828286</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-545.0588937263458</v>
+        <v>-619.4889386223116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4375439658108542</v>
+        <v>0.3775710966431829</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-521.5931308384129</v>
+        <v>-515.6067090830319</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0251108654412234</v>
+        <v>0.02700719493159519</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-145.9156682360821</v>
+        <v>-155.1474822218867</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7819272351229662</v>
+        <v>0.768789132352841</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-32.77421108705916</v>
+        <v>-33.48675762419135</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1704136215363789</v>
+        <v>0.1618030648430875</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-994.9245965318753</v>
+        <v>-810.2576308270985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0162272701437836</v>
+        <v>0.04514143291436675</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1185.836883583163</v>
+        <v>-328.2742203462682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1090432516788499</v>
+        <v>0.5919970877936358</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.416947532823517</v>
+        <v>0.8747175465184108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3395605301703509</v>
+        <v>0.02024485573500035</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1149,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002661322541796743</v>
+        <v>-0.002585191802171096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003006560916879615</v>
+        <v>0.0004450273602148418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-106.3691259018732</v>
+        <v>-195.4908247717869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03930576461920506</v>
+        <v>0.08629789771935531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-103.1459798066684</v>
+        <v>13899.60020682471</v>
       </c>
       <c r="C17" t="n">
-        <v>0.398902734747375</v>
+        <v>0.05421626060410578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4550.686692080557</v>
+        <v>-14682.1756036222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.592965594576739</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-7917.792302091141</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.187884644244649</v>
+        <v>0.003657074431090889</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32402.85928006861</v>
+        <v>33098.06260356442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006859979482779651</v>
+        <v>0.005687612488244894</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1414.343077550277</v>
+        <v>-1433.397204045728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4959408099612397</v>
+        <v>0.4901657210708745</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1346.880339786805</v>
+        <v>-1289.31762392194</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3777441793786027</v>
+        <v>0.3981986785266972</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.293349797714</v>
+        <v>292.2942486793888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6332223377516426</v>
+        <v>0.6540004959850163</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169.4764049566377</v>
+        <v>-109.418464448226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.813094223042252</v>
+        <v>0.8783137374275427</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-400.6513966838122</v>
+        <v>-408.5240966222234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.614579365036949</v>
+        <v>0.6076492491282686</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-967.9936839086536</v>
+        <v>-973.8528550987489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1769349220920642</v>
+        <v>0.1743439323098353</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-292.6327945626157</v>
+        <v>-289.9985098987369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2293420294086614</v>
+        <v>0.2335635832634219</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-111.4723180269601</v>
+        <v>-114.1808039783518</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8353992747925119</v>
+        <v>0.8314674807598436</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.652602988101657</v>
+        <v>-3.807686214737414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8825545055484486</v>
+        <v>0.8776117807937559</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-628.6532341624784</v>
+        <v>-545.3061545052874</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1346340742535518</v>
+        <v>0.1866765707948419</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-496.5970387592382</v>
+        <v>-74.06162102103599</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5057400331010002</v>
+        <v>0.9070371660215857</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.284992743000062</v>
+        <v>0.5054014578954756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5054285119137036</v>
+        <v>0.1785600200507316</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1406,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001905341597028162</v>
+        <v>-0.001869167661302271</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0103200990985938</v>
+        <v>0.01177628865392222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-55.73497943981236</v>
+        <v>-153.6250163912339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2825941018401522</v>
+        <v>0.182598706837093</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-108.9420911095722</v>
+        <v>9776.838801456513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3738634242264315</v>
+        <v>0.1838437960174214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4978.735370361435</v>
+        <v>-8518.262795731642</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5627844629003047</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5133.473811011276</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3800578827580753</v>
+        <v>0.0840084253876468</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28375.93818858629</v>
+        <v>29173.56591121012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02119761071053773</v>
+        <v>0.01690952058960223</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1610.559229777658</v>
+        <v>-1631.446870951371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4110969143503942</v>
+        <v>0.4048231380402721</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1318.220761174334</v>
+        <v>-1285.112100440387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3798626617689097</v>
+        <v>0.3913736838585731</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389.1775040529111</v>
+        <v>376.7720184905709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5388236707223002</v>
+        <v>0.5514393800532125</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.32685293476197</v>
+        <v>89.88367526729036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9202126951179163</v>
+        <v>0.8979559080950555</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.0056845574484</v>
+        <v>344.5291783732899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6463163304672874</v>
+        <v>0.6619212704477896</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-856.9346757743758</v>
+        <v>-873.3740060299842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2221780836312338</v>
+        <v>0.2128369742206579</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-526.2904384644924</v>
+        <v>-526.6494837253786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02498389608591339</v>
+        <v>0.02484334904347031</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-33.53404758880941</v>
+        <v>-37.21941139524284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9490099995577872</v>
+        <v>0.9433937860262793</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.35837151674136</v>
+        <v>-30.80679801003733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2042590265164531</v>
+        <v>0.1972342060400902</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-546.5002023047991</v>
+        <v>-501.7825354592496</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1848367238673987</v>
+        <v>0.2128386193362468</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-332.787216275594</v>
+        <v>-108.5356568507133</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6661255087426546</v>
+        <v>0.8646785691381093</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1829349683609985</v>
+        <v>0.2959274227032208</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6710990712124624</v>
+        <v>0.4249132792620719</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1663,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00164502869590767</v>
+        <v>-0.001648914074972868</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02911634701155477</v>
+        <v>0.02868514244278115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-26.88611612079023</v>
+        <v>-110.2185376346468</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6060039627388375</v>
+        <v>0.3500298752802394</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-84.29355557391006</v>
+        <v>8070.951526492602</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5109351517140031</v>
+        <v>0.2788922381995411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5524.764728581853</v>
+        <v>-5695.544489873175</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5366353569151511</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4026.455696682633</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4913369523945839</v>
+        <v>0.242567758904137</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43196.36327020752</v>
+        <v>44849.75670881434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003792749623615916</v>
+        <v>0.0002198308350215724</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2642.502082116322</v>
+        <v>-2722.178658042571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2290427797188871</v>
+        <v>0.2157064546241299</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2135.334278811047</v>
+        <v>-2080.250094068089</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1758598941873148</v>
+        <v>0.1876425400101943</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>441.951905914971</v>
+        <v>374.422458045745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4874402948965978</v>
+        <v>0.5561252089121094</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90.20684814708466</v>
+        <v>7.674676741096022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8982064277750459</v>
+        <v>0.9913019389395454</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-222.4526104205261</v>
+        <v>-202.3786856168499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7775448301780106</v>
+        <v>0.7973446502690839</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-613.8206503433732</v>
+        <v>-647.5935203692038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3903741550265761</v>
+        <v>0.3651842963011996</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-541.2753814635729</v>
+        <v>-547.2200671833381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.020476611836017</v>
+        <v>0.01924740429056532</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-389.8741041467595</v>
+        <v>-407.6808665275503</v>
       </c>
       <c r="C10" t="n">
-        <v>0.463692274999818</v>
+        <v>0.4439309702777094</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-36.08043960973011</v>
+        <v>-38.44860982026906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1355115815607013</v>
+        <v>0.1115952376348321</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-675.5087164212991</v>
+        <v>-512.5872204040128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1028393660017744</v>
+        <v>0.206237594289445</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-311.7947905982028</v>
+        <v>470.5031570584311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6812525712906252</v>
+        <v>0.4619371606471442</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2044246996273111</v>
+        <v>0.5991830732578256</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6298516748179852</v>
+        <v>0.1061713008831545</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1920,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002161340369822562</v>
+        <v>-0.002133477551696493</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004083568729372206</v>
+        <v>0.004620541170969361</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-99.24330753680644</v>
+        <v>-251.12239237696</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05651961785425966</v>
+        <v>0.03222681884831229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-167.8950689157721</v>
+        <v>13717.06418772397</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1790134001382198</v>
+        <v>0.06412633903641023</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4805.833552800952</v>
+        <v>-9994.20362503871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.582756055877561</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4157.788515747867</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.463494252723643</v>
+        <v>0.03671866508227754</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38363.23588279225</v>
+        <v>40538.75227224884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002893614296886767</v>
+        <v>0.001558451149138951</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1228.402714674723</v>
+        <v>-1329.172274112133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5756487643903696</v>
+        <v>0.5447982189743826</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-577.2096858247216</v>
+        <v>-475.3550113773812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7263533504941491</v>
+        <v>0.7731314637438399</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>773.0198011837637</v>
+        <v>737.7857650288382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2364635055362717</v>
+        <v>0.2584953801126532</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67.35725300203458</v>
+        <v>21.41381092515667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.925361414325237</v>
+        <v>0.9761804137122185</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.4831398588683</v>
+        <v>-60.60919945559021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9598779731576448</v>
+        <v>0.9399897917951321</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1404.228517693706</v>
+        <v>-1419.270547567758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05539635782784311</v>
+        <v>0.05295345884166094</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-680.2629209426259</v>
+        <v>-680.1112705212371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004725508481850105</v>
+        <v>0.004758693148748963</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-281.5987363171243</v>
+        <v>-288.4135396534558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6028543278810735</v>
+        <v>0.5943097353253514</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02522898414803176</v>
+        <v>-0.7785799584705639</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991991982911756</v>
+        <v>0.9753005060019241</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-779.0993848839747</v>
+        <v>-624.6609009608241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06956232367815358</v>
+        <v>0.1351577817524702</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-494.7496821437975</v>
+        <v>234.6424966099553</v>
       </c>
       <c r="C13" t="n">
-        <v>0.538248420150979</v>
+        <v>0.7210724192220938</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2701708147417117</v>
+        <v>0.6278732985954807</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5410522343181432</v>
+        <v>0.09804890143771905</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2177,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002055975670344107</v>
+        <v>-0.00207204693868059</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009480412062238123</v>
+        <v>0.008970621875553017</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-84.79714015997368</v>
+        <v>-222.3059844331885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1156210475069608</v>
+        <v>0.07259954549097258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-141.3162966325544</v>
+        <v>12936.40918657833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2915318089557142</v>
+        <v>0.0929911070667106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4733.963995099335</v>
+        <v>-8614.763201007496</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6104060101021398</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3547.598768824098</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5490859771447469</v>
+        <v>0.08335214613116534</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36703.97066769873</v>
+        <v>38391.42722880011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002702411042421356</v>
+        <v>0.001680571080802565</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2125.162410205084</v>
+        <v>-2210.678952005359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3297334413098265</v>
+        <v>0.3110819021211159</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-632.446006560552</v>
+        <v>-489.8876327826375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7005666177145955</v>
+        <v>0.7658205214659923</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.8131579853126</v>
+        <v>503.913498630207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4292451178887465</v>
+        <v>0.4386733821034012</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.6208408944999</v>
+        <v>181.1303354001739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8857791619710259</v>
+        <v>0.7997526089362701</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.4945984221996</v>
+        <v>211.013117559699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.781081456349362</v>
+        <v>0.792327974943019</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-937.4433114386043</v>
+        <v>-954.5368713395534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1921803813370488</v>
+        <v>0.1846505981967818</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-428.148037588903</v>
+        <v>-423.8569931570263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07515819109290126</v>
+        <v>0.0784350823914229</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-820.2141659163624</v>
+        <v>-807.4849829178704</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1287700283669983</v>
+        <v>0.1352026397046614</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.59234124763266</v>
+        <v>-6.223303171455555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8523610531833929</v>
+        <v>0.8009867425857922</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-894.4750623947259</v>
+        <v>-725.0299395909699</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03392113087594784</v>
+        <v>0.07917409931439684</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-865.783939234725</v>
+        <v>-71.28528106833176</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2550697795599112</v>
+        <v>0.9117318085056597</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04662015091763638</v>
+        <v>0.3641633321072852</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9147778621009977</v>
+        <v>0.3402932799945726</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2434,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002168924124239217</v>
+        <v>-0.002112393087109042</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003893352276142103</v>
+        <v>0.00494327963328252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-102.3793628319345</v>
+        <v>-183.2321340930965</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05119099150893307</v>
+        <v>0.1188489769068677</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-97.08806876105471</v>
+        <v>9559.525173458973</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4386070658688307</v>
+        <v>0.1972500290181655</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>578.4482675920253</v>
+        <v>-8537.934621379158</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9470945459806528</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2230.898171359006</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7084903546250436</v>
+        <v>0.08921696388308287</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39727.43872188345</v>
+        <v>41427.77826711473</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00107166548947075</v>
+        <v>0.0006447068063072495</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1512.22300620165</v>
+        <v>-1587.157597889764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4725942311267889</v>
+        <v>0.4515675625136255</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1146.582221960672</v>
+        <v>-973.2137669382016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4672259325749683</v>
+        <v>0.5372885098076834</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.6298529899258</v>
+        <v>922.8889895943821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1318741608539297</v>
+        <v>0.1490251911557719</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.228273908126312</v>
+        <v>96.01512425719585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.997468404906835</v>
+        <v>0.8912208649191518</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.93611887073223</v>
+        <v>31.84756131722631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9551981864425692</v>
+        <v>0.967565208492726</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-394.1743437239601</v>
+        <v>-432.7029457884954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5816198736363948</v>
+        <v>0.5457539315464236</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-458.2714680453797</v>
+        <v>-439.7860477151025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05599701809554618</v>
+        <v>0.06688999741545042</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-256.4514117417793</v>
+        <v>-229.1849946022932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6301538832529094</v>
+        <v>0.6673541152356044</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.1604317252467</v>
+        <v>-29.42436838414962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2502006533144829</v>
+        <v>0.2301584528981719</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-941.5094868293952</v>
+        <v>-731.8759978704887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02482016586394632</v>
+        <v>0.07365644120783364</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1134.151772631275</v>
+        <v>-198.6910799990885</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1351884962003555</v>
+        <v>0.752948608949919</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07006340436588608</v>
+        <v>0.5448037451618142</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8717497928794602</v>
+        <v>0.149548103618645</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2691,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002181672378134019</v>
+        <v>-0.002098569464449731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003654595174226303</v>
+        <v>0.005182905565611116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-115.5818674136233</v>
+        <v>-196.7757592174794</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02699031732348248</v>
+        <v>0.09193864811626482</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-98.28697338764167</v>
+        <v>9729.440815341872</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4307389423922879</v>
+        <v>0.1865218580825489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-509.7291276954868</v>
+        <v>-12392.40393324358</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9532027561154186</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5334.08595550795</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3711095362829301</v>
+        <v>0.01417827043463239</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Kassel.xlsx
+++ b/outputs/ML_Results/dist_commute/Kassel.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ09946458" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ10163890" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ10431808" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ10704077" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ11036862" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ11363317" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ11693132" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ11994613" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ12252963" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ20337605" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ20551358" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ20806445" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ21065453" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ21313605" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ21573377" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ21832211" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ22068461" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ22288999" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36196.38548723406</v>
+        <v>36196.38548877022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00232069410204281</v>
+        <v>0.002320694101169289</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1169.554913479168</v>
+        <v>-1169.554913457949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5762133788806791</v>
+        <v>0.5762133788802062</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3875.819456320361</v>
+        <v>-3875.819456319767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01609502178329286</v>
+        <v>0.01609502178330473</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>312.261896981668</v>
+        <v>312.2618969374976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6147279495873796</v>
+        <v>0.6147279496465745</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82.60559163782753</v>
+        <v>-82.60559163724635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9034910703374563</v>
+        <v>0.903491070338136</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.02014331108455</v>
+        <v>-13.020143295053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9866160511526001</v>
+        <v>0.9866160511690685</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-515.8786374879742</v>
+        <v>-515.8786374588803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4595888808397141</v>
+        <v>0.4595888808659871</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-389.3323253464753</v>
+        <v>-389.3323253415806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09345283949964699</v>
+        <v>0.09345283950343859</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-440.2314409426975</v>
+        <v>-440.2314409446813</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3974745354758743</v>
+        <v>0.3974745354739131</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.6925840387889</v>
+        <v>-28.69258403798269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2311551379761061</v>
+        <v>0.2311551379886758</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-529.6140417275253</v>
+        <v>-529.6140418510018</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1941172550090193</v>
+        <v>0.1941172549011204</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.61829498700729</v>
+        <v>29.61829497052179</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9617456053852231</v>
+        <v>0.9617456054064377</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4603837289145062</v>
+        <v>46.03837289203688</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1954951882243796</v>
+        <v>0.1954951882190778</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001245384883943588</v>
+        <v>-1245.384883951273</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09391660137996567</v>
+        <v>0.0939166013730002</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-175.4469111469172</v>
+        <v>-175.446911146918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1266757303598965</v>
+        <v>0.1266757303598948</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3609.759798958724</v>
+        <v>36.09759798958692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.619831060424154</v>
+        <v>0.6198310604241575</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9573.902877056833</v>
+        <v>-95.73902877056759</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03997367169118889</v>
+        <v>0.03997367169119049</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44184.62416704743</v>
+        <v>44184.62416774672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002265862345288609</v>
+        <v>0.0002265862344826621</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1674.35386223967</v>
+        <v>-1674.353862277875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4216324509088752</v>
+        <v>0.4216324509089109</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1776.710176836773</v>
+        <v>-1776.710176750639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2297930238138355</v>
+        <v>0.2297930238334268</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>429.5328438669735</v>
+        <v>429.5328438862127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4964230260517424</v>
+        <v>0.4964230260290712</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394.7725764915149</v>
+        <v>-394.7725764928768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5746449213451275</v>
+        <v>0.5746449213437629</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-89.24795046311073</v>
+        <v>-89.24795045391841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9080099955413898</v>
+        <v>0.90800999555082</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-699.3422026201771</v>
+        <v>-699.3422025955836</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3246988508979342</v>
+        <v>0.3246988509165553</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-571.4240196305877</v>
+        <v>-571.4240196176981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.014039387326435</v>
+        <v>0.01403938732850111</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-654.159959462248</v>
+        <v>-654.1599594617826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2153517056234526</v>
+        <v>0.2153517056237355</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.61922073926511</v>
+        <v>-31.61922073789887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1932122803641029</v>
+        <v>0.1932122803825585</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-692.0519954329775</v>
+        <v>-692.0519955029653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09207447372295065</v>
+        <v>0.09207447368868679</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-297.0984983973884</v>
+        <v>-297.0984983836657</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6349897376554801</v>
+        <v>0.6349897376714535</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9779150900507574</v>
+        <v>97.79150900818786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00745432258158752</v>
+        <v>0.007454322579854141</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002372685031425587</v>
+        <v>-2372.685031480267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001677454691566669</v>
+        <v>0.001677454691516714</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-210.8958414251611</v>
+        <v>-210.8958414251613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06897920584201743</v>
+        <v>0.06897920584201728</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13077.95072336806</v>
+        <v>130.7795072336808</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07482935693300075</v>
+        <v>0.07482935693299984</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-15697.49765697986</v>
+        <v>-156.9749765697991</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00104697553176106</v>
+        <v>0.001046975531761009</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42946.7197757659</v>
+        <v>42946.71977594581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003023933051503</v>
+        <v>0.0003023933051339155</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1898.101944787245</v>
+        <v>-1898.101944850181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3339783341375535</v>
+        <v>0.3339783341377869</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1516.009062681957</v>
+        <v>-1516.009062794444</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3222621686011493</v>
+        <v>0.3222621685688847</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.53991562220538</v>
+        <v>28.5399154837916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9647712548755398</v>
+        <v>0.9647712550480676</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.7256020075132</v>
+        <v>342.7256020351242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.628387695555173</v>
+        <v>0.628387695527997</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.0741903416056</v>
+        <v>111.074190416738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8856391488828286</v>
+        <v>0.8856391488057732</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-619.4889386223116</v>
+        <v>-619.4889385905349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3775710966431829</v>
+        <v>0.3775710966689766</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-515.6067090830319</v>
+        <v>-515.6067090928286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02700719493159519</v>
+        <v>0.02700719492886773</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-155.1474822218867</v>
+        <v>-155.1474822173132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.768789132352841</v>
+        <v>0.7687891323593347</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.48675762419135</v>
+        <v>-33.48675762509735</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1618030648430875</v>
+        <v>0.1618030648324094</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-810.2576308270985</v>
+        <v>-810.2576308289345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04514143291436675</v>
+        <v>0.04514143291385008</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-328.2742203462682</v>
+        <v>-328.2742203698579</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5919970877936358</v>
+        <v>0.591997087766457</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8747175465184108</v>
+        <v>87.47175465480173</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02024485573500035</v>
+        <v>0.02024485573096677</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002585191802171096</v>
+        <v>-2585.191802379732</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004450273602148418</v>
+        <v>0.0004450273597738911</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-195.4908247717869</v>
+        <v>-195.4908247717874</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08629789771935531</v>
+        <v>0.08629789771935481</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13899.60020682471</v>
+        <v>138.9960020682473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05421626060410578</v>
+        <v>0.05421626060410555</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-14682.1756036222</v>
+        <v>-146.8217560362225</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003657074431090889</v>
+        <v>0.00365707443109081</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33098.06260356442</v>
+        <v>33098.06260347755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005687612488244894</v>
+        <v>0.005687612488353149</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1433.397204045728</v>
+        <v>-1433.397203925818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4901657210708745</v>
+        <v>0.4901657210708966</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1289.31762392194</v>
+        <v>-1289.31762387257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3981986785266972</v>
+        <v>0.398198678542788</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.2942486793888</v>
+        <v>292.2942487333293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6540004959850163</v>
+        <v>0.654000495917135</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109.418464448226</v>
+        <v>-109.4184644325799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8783137374275427</v>
+        <v>0.8783137374449386</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-408.5240966222234</v>
+        <v>-408.5240966061417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6076492491282686</v>
+        <v>0.6076492491422231</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-973.8528550987489</v>
+        <v>-973.8528550797248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1743439323098353</v>
+        <v>0.1743439323189417</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-289.9985098987369</v>
+        <v>-289.9985098916475</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2335635832634219</v>
+        <v>0.2335635832744805</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-114.1808039783518</v>
+        <v>-114.1808039742495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8314674807598436</v>
+        <v>0.8314674807656999</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.807686214737414</v>
+        <v>-3.8076862136695</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8776117807937559</v>
+        <v>0.8776117808274153</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-545.3061545052874</v>
+        <v>-545.3061544705122</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1866765707948419</v>
+        <v>0.1866765708240941</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-74.06162102103599</v>
+        <v>-74.06162102859855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9070371660215857</v>
+        <v>0.9070371660120484</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5054014578954756</v>
+        <v>50.54014579032321</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1785600200507316</v>
+        <v>0.1785600200444253</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001869167661302271</v>
+        <v>-1869.167661434016</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01177628865392222</v>
+        <v>0.01177628864820958</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-153.6250163912339</v>
+        <v>-153.6250163912327</v>
       </c>
       <c r="C16" t="n">
-        <v>0.182598706837093</v>
+        <v>0.1825987068370951</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9776.838801456513</v>
+        <v>97.76838801456438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1838437960174214</v>
+        <v>0.1838437960174251</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8518.262795731642</v>
+        <v>-85.1826279573167</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0840084253876468</v>
+        <v>0.08400842538764532</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29173.56591121012</v>
+        <v>29173.56591212243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01690952058960223</v>
+        <v>0.01690952058641571</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1631.446870951371</v>
+        <v>-1631.446870906414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4048231380402721</v>
+        <v>0.4048231380405638</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1285.112100440387</v>
+        <v>-1285.112100638221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3913736838585731</v>
+        <v>0.3913736837930714</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.7720184905709</v>
+        <v>376.7720183780948</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5514393800532125</v>
+        <v>0.551439380191055</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.88367526729036</v>
+        <v>89.88367524380971</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8979559080950555</v>
+        <v>0.8979559081214649</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344.5291783732899</v>
+        <v>344.5291783330272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6619212704477896</v>
+        <v>0.6619212704852164</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-873.3740060299842</v>
+        <v>-873.374006033653</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2128369742206579</v>
+        <v>0.2128369742185941</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-526.6494837253786</v>
+        <v>-526.6494837320856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02484334904347031</v>
+        <v>0.02484334904174882</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.21941139524284</v>
+        <v>-37.21941140459109</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9433937860262793</v>
+        <v>0.9433937860121673</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.80679801003733</v>
+        <v>-30.80679801147207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1972342060400902</v>
+        <v>0.1972342060207552</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-501.7825354592496</v>
+        <v>-501.7825355447873</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2128386193362468</v>
+        <v>0.2128386192550349</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-108.5356568507133</v>
+        <v>-108.5356570432825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8646785691381093</v>
+        <v>0.864678568898171</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2959274227032208</v>
+        <v>29.59274226439273</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4249132792620719</v>
+        <v>0.4249132793530851</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001648914074972868</v>
+        <v>-1648.914074978567</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02868514244278115</v>
+        <v>0.02868514244208495</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-110.2185376346468</v>
+        <v>-110.2185376346462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3500298752802394</v>
+        <v>0.3500298752802414</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8070.951526492602</v>
+        <v>80.70951526492607</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2788922381995411</v>
+        <v>0.2788922381995404</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5695.544489873175</v>
+        <v>-56.95544489873214</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242567758904137</v>
+        <v>0.2425677589041345</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44849.75670881434</v>
+        <v>44849.75670957401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002198308350215724</v>
+        <v>0.0002198308349704748</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2722.178658042571</v>
+        <v>-2722.178657995381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2157064546241299</v>
+        <v>0.2157064546242814</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2080.250094068089</v>
+        <v>-2080.250094064314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1876425400101943</v>
+        <v>0.1876425400108858</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.422458045745</v>
+        <v>374.4224581819449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5561252089121094</v>
+        <v>0.5561252087557214</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.674676741096022</v>
+        <v>7.674676720277972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9913019389395454</v>
+        <v>0.9913019389631341</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-202.3786856168499</v>
+        <v>-202.3786856289609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7973446502690839</v>
+        <v>0.797344650257246</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-647.5935203692038</v>
+        <v>-647.5935204041884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3651842963011996</v>
+        <v>0.3651842962743865</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-547.2200671833381</v>
+        <v>-547.2200671940125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01924740429056532</v>
+        <v>0.01924740428836384</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-407.6808665275503</v>
+        <v>-407.68086655992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4439309702777094</v>
+        <v>0.4439309702432654</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-38.44860982026906</v>
+        <v>-38.4486098217814</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1115952376348321</v>
+        <v>0.1115952376213418</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-512.5872204040128</v>
+        <v>-512.5872203133464</v>
       </c>
       <c r="C12" t="n">
-        <v>0.206237594289445</v>
+        <v>0.2062375943732129</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.5031570584311</v>
+        <v>470.5031570798502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4619371606471442</v>
+        <v>0.4619371606272233</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5991830732578256</v>
+        <v>59.91830732295131</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1061713008831545</v>
+        <v>0.1061713008996349</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002133477551696493</v>
+        <v>-2133.477552128424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004620541170969361</v>
+        <v>0.004620541162272335</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-251.12239237696</v>
+        <v>-251.1223923769576</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03222681884831229</v>
+        <v>0.03222681884831376</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13717.06418772397</v>
+        <v>137.1706418772401</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06412633903641023</v>
+        <v>0.06412633903640963</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9994.20362503871</v>
+        <v>-99.94203625038693</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03671866508227754</v>
+        <v>0.03671866508227774</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40538.75227224884</v>
+        <v>40538.7522720218</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001558451149138951</v>
+        <v>0.00155845114922953</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1329.172274112133</v>
+        <v>-1329.172273972747</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5447982189743826</v>
+        <v>0.5447982189744236</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-475.3550113773812</v>
+        <v>-475.3550113098201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7731314637438399</v>
+        <v>0.7731314637738709</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>737.7857650288382</v>
+        <v>737.7857650630115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2584953801126532</v>
+        <v>0.258495380082067</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.41381092515667</v>
+        <v>21.41381092286792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9761804137122185</v>
+        <v>0.9761804137147634</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-60.60919945559021</v>
+        <v>-60.60919945516753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9399897917951321</v>
+        <v>0.9399897917955489</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1419.270547567758</v>
+        <v>-1419.270547551541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05295345884166094</v>
+        <v>0.05295345884481897</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-680.1112705212371</v>
+        <v>-680.1112705183245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004758693148748963</v>
+        <v>0.004758693148922906</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-288.4135396534558</v>
+        <v>-288.4135396606076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5943097353253514</v>
+        <v>0.5943097353165825</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7785799584705639</v>
+        <v>-0.7785799542193468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9753005060019241</v>
+        <v>0.9753005061364086</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-624.6609009608241</v>
+        <v>-624.6609009708322</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1351577817524702</v>
+        <v>0.1351577817455396</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.6424966099553</v>
+        <v>234.6424965647803</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7210724192220938</v>
+        <v>0.7210724192720612</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6278732985954807</v>
+        <v>62.78732986079558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09804890143771905</v>
+        <v>0.09804890143142521</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00207204693868059</v>
+        <v>-2072.046938737091</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008970621875553017</v>
+        <v>0.008970621874481038</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-222.3059844331885</v>
+        <v>-222.3059844331892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07259954549097258</v>
+        <v>0.07259954549097221</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12936.40918657833</v>
+        <v>129.3640918657837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0929911070667106</v>
+        <v>0.09299110706671029</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8614.763201007496</v>
+        <v>-86.14763201007511</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08335214613116534</v>
+        <v>0.08335214613116464</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38391.42722880011</v>
+        <v>38391.42722693388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001680571080802565</v>
+        <v>0.001680571081660551</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2210.678952005359</v>
+        <v>-2210.678951938505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3110819021211159</v>
+        <v>0.3110819021211281</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-489.8876327826375</v>
+        <v>-489.8876326156089</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7658205214659923</v>
+        <v>0.7658205215415019</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.913498630207</v>
+        <v>503.9134987366098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4386733821034012</v>
+        <v>0.4386733819914054</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181.1303354001739</v>
+        <v>181.13033542243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7997526089362701</v>
+        <v>0.7997526089122401</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.013117559699</v>
+        <v>211.0131176118497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.792327974943019</v>
+        <v>0.7923279748923091</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-954.5368713395534</v>
+        <v>-954.5368713276499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1846505981967818</v>
+        <v>0.1846505982026268</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-423.8569931570263</v>
+        <v>-423.85699313587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0784350823914229</v>
+        <v>0.0784350824051283</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-807.4849829178704</v>
+        <v>-807.4849829111736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1352026397046614</v>
+        <v>0.1352026397076332</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.223303171455555</v>
+        <v>-6.223303169718346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8009867425857922</v>
+        <v>0.8009867426395686</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-725.0299395909699</v>
+        <v>-725.0299394911121</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07917409931439684</v>
+        <v>0.07917409935794817</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-71.28528106833176</v>
+        <v>-71.28528091386815</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9117318085056597</v>
+        <v>0.9117318086966821</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3641633321072852</v>
+        <v>36.41633321963816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3402932799945726</v>
+        <v>0.340293279877568</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002112393087109042</v>
+        <v>-2112.393086822142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00494327963328252</v>
+        <v>0.004943279639176412</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-183.2321340930965</v>
+        <v>-183.2321340930962</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1188489769068677</v>
+        <v>0.1188489769068686</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9559.525173458973</v>
+        <v>95.59525173459002</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1972500290181655</v>
+        <v>0.197250029018164</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8537.934621379158</v>
+        <v>-85.37934621379176</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08921696388308287</v>
+        <v>0.08921696388308206</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41427.77826711473</v>
+        <v>41427.77826695549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006447068063072495</v>
+        <v>0.0006447068063332794</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1587.157597889764</v>
+        <v>-1587.157597947568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4515675625136255</v>
+        <v>0.4515675625133749</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-973.2137669382016</v>
+        <v>-973.2137667932629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5372885098076834</v>
+        <v>0.5372885098639794</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>922.8889895943821</v>
+        <v>922.8889896743524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1490251911557719</v>
+        <v>0.1490251911068593</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.01512425719585</v>
+        <v>96.01512426041154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8912208649191518</v>
+        <v>0.8912208649155574</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.84756131722631</v>
+        <v>31.84756131679458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.967565208492726</v>
+        <v>0.9675652084931659</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-432.7029457884954</v>
+        <v>-432.7029457975139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5457539315464236</v>
+        <v>0.5457539315376918</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-439.7860477151025</v>
+        <v>-439.7860477191056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06688999741545042</v>
+        <v>0.06688999741311302</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-229.1849946022932</v>
+        <v>-229.1849945980096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6673541152356044</v>
+        <v>0.6673541152412789</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.42436838414962</v>
+        <v>-29.424368382548</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2301584528981719</v>
+        <v>0.2301584529213495</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-731.8759978704887</v>
+        <v>-731.8759978702274</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07365644120783364</v>
+        <v>0.07365644120793932</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-198.6910799990885</v>
+        <v>-198.6910799232304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.752948608949919</v>
+        <v>0.7529486090430058</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5448037451618142</v>
+        <v>54.48037451726019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.149548103618645</v>
+        <v>0.1495481036110249</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002098569464449731</v>
+        <v>-2098.569464469052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005182905565611116</v>
+        <v>0.005182905564892121</v>
       </c>
     </row>
     <row r="16">
@@ -2707,7 +2707,7 @@
         <v>-196.7757592174794</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09193864811626482</v>
+        <v>0.09193864811626519</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9729.440815341872</v>
+        <v>97.29440815341891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1865218580825489</v>
+        <v>0.1865218580825482</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-12392.40393324358</v>
+        <v>-123.9240393324365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01417827043463239</v>
+        <v>0.01417827043463189</v>
       </c>
     </row>
   </sheetData>
